--- a/source/_static/report/PR_sample_r51.xlsx
+++ b/source/_static/report/PR_sample_r51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\COUNTER\Release 5.1\Sample reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB6680E-910F-4553-8C6E-5DBECB1202A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20596E4-2DB7-4605-B17C-11BACF79AD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EA664E9-C053-405F-A2F3-F2921751D865}"/>
   </bookViews>
@@ -4627,9 +4627,7 @@
   </sheetPr>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
